--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4571428571428572</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5690476190476191</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4" t="n">
         <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8648648648648648</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9525</v>
+        <v>0.8474999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.95</v>
+        <v>0.4575</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8875</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8615686274509804</v>
+        <v>0.5939068100358422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5876190476190477</v>
+        <v>0.6314285714285715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6752828972183812</v>
+        <v>0.5957714799820063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7846666666666667</v>
+        <v>0.6245476190476191</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5690476190476191</v>
+        <v>0.5429362880886427</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8761904761904762</v>
+        <v>0.9778393351800554</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.6382978723404255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.7451523545706371</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="C5" t="n">
-        <v>0.45</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4575</v>
+        <v>0.4824561403508772</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6829268292682926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3725</v>
+        <v>0.7076023391812866</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5939068100358422</v>
+        <v>0.6404375624375624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6314285714285715</v>
+        <v>0.6830409356725146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5957714799820063</v>
+        <v>0.6456579071998269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6245476190476191</v>
+        <v>0.6911972914742999</v>
       </c>
     </row>
   </sheetData>
